--- a/legendre_out/DATA/o17_1/o17_1Fits.xlsx
+++ b/legendre_out/DATA/o17_1/o17_1Fits.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,13 +391,13 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>8.016905079108216e-13</v>
+        <v>2.525192696991992e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>3.059336258913702e-13</v>
+        <v>1.98083018487394e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.867991486473337</v>
+        <v>0.001176585465706867</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -410,13 +410,13 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>1.406867265985028e-12</v>
+        <v>2.477679406986187e-11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.922131281796801e-13</v>
+        <v>2.53690106916086e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8335042377887393</v>
+        <v>0.007489088570776322</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -429,13 +429,13 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>2.317121311280893e-12</v>
+        <v>1.294486603143168e-11</v>
       </c>
       <c r="C4" t="n">
-        <v>8.744317793948031e-13</v>
+        <v>1.711693302398056e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9912415494071537</v>
+        <v>0.1545324669102546</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -448,13 +448,13 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>4.172625236251857e-12</v>
+        <v>1.246219754628089e-11</v>
       </c>
       <c r="C5" t="n">
-        <v>1.634262131690594e-12</v>
+        <v>2.736576578390803e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9976560733156785</v>
+        <v>2.039222293815907e-07</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>3.534558413931361e-12</v>
+        <v>1.523568002144078e-11</v>
       </c>
       <c r="C6" t="n">
-        <v>1.404206242693664e-12</v>
+        <v>2.716077331843508e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.982600127169923</v>
+        <v>0.2757667835638476</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>2.959682672941428e-12</v>
+        <v>1.621437447945091e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>1.162448491673189e-12</v>
+        <v>3.136470441698222e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.911136332709904</v>
+        <v>0.8536196721250638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -505,13 +505,13 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>4.122381162490391e-12</v>
+        <v>9.20485868140053e-12</v>
       </c>
       <c r="C8" t="n">
-        <v>1.698027803533543e-12</v>
+        <v>1.621158598772198e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8987880148553116</v>
+        <v>2.189758801139621e-08</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -524,13 +524,13 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>4.961403613471724e-12</v>
+        <v>1.567185012259133e-11</v>
       </c>
       <c r="C9" t="n">
-        <v>2.079083978249215e-12</v>
+        <v>1.70912818428839e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9154742873528505</v>
+        <v>3.197270687152889e-22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>2.745357030556341e-12</v>
+        <v>8.430881744718213e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>1.308432562741356e-12</v>
+        <v>1.825802553419509e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8824416136512344</v>
+        <v>0.8176400394424563</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>3.994373251772236e-12</v>
+        <v>1.122321843881117e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.554141550793076e-12</v>
+        <v>1.700407127747528e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9809799956789812</v>
+        <v>0.0006552860999117415</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>2.705967907969183e-12</v>
+        <v>1.315946546678086e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.067989947780977e-12</v>
+        <v>2.995859264299246e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9597338975368239</v>
+        <v>0.6156321467554654</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>2.898510666107354e-12</v>
+        <v>5.520247544126023e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.132260320595079e-12</v>
+        <v>1.915183683230539e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9770949234539466</v>
+        <v>0.4381062449602182</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.366924786022944e-12</v>
+        <v>2.609392501224002e-11</v>
       </c>
       <c r="C14" t="n">
-        <v>1.274086577036282e-12</v>
+        <v>1.665088110223715e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9967283509010011</v>
+        <v>0.000145150995059403</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>2.554979007366236e-12</v>
+        <v>3.067406985109696e-11</v>
       </c>
       <c r="C15" t="n">
-        <v>1.140288534021448e-12</v>
+        <v>1.693945713317106e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9173276912411429</v>
+        <v>1.014831567185099e-16</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>5.592061863285415e-12</v>
+        <v>2.987654992595244e-11</v>
       </c>
       <c r="C16" t="n">
-        <v>2.30350927985197e-12</v>
+        <v>2.056894185765423e-12</v>
       </c>
       <c r="D16" t="n">
-        <v>0.908553867486088</v>
+        <v>5.260512632300984e-09</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>6.304217616929481e-12</v>
+        <v>2.330194515437594e-11</v>
       </c>
       <c r="C17" t="n">
-        <v>2.48460556794382e-12</v>
+        <v>2.142121766323853e-12</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9813111906228501</v>
+        <v>2.390998487875464e-09</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -695,13 +695,13 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>5.846209138861273e-12</v>
+        <v>3.356898581859017e-11</v>
       </c>
       <c r="C18" t="n">
-        <v>2.147679778116569e-12</v>
+        <v>2.603177247432352e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9348624307177711</v>
+        <v>0.003494498150942312</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>7.864989675053658e-12</v>
+        <v>2.857047070388461e-11</v>
       </c>
       <c r="C19" t="n">
-        <v>3.188734741398308e-12</v>
+        <v>2.229128419203362e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9860307038928584</v>
+        <v>0.01711307232555705</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>4.133150635382301e-12</v>
+        <v>1.835922394251496e-11</v>
       </c>
       <c r="C20" t="n">
-        <v>1.809307285923591e-12</v>
+        <v>2.359916772656244e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7586365243145445</v>
+        <v>0.0001159193040018256</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>1.01514237839042e-11</v>
+        <v>4.542462115554469e-11</v>
       </c>
       <c r="C21" t="n">
-        <v>3.946853502652115e-12</v>
+        <v>3.384753713954148e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9963201347768957</v>
+        <v>0.002062009911752681</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>2.205744956866639e-11</v>
+        <v>3.103126028154955e-11</v>
       </c>
       <c r="C22" t="n">
-        <v>8.518767782073593e-12</v>
+        <v>8.82614703958064e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9898628524180479</v>
+        <v>0.6275314157013387</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -790,13 +790,13 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>3.834235709272862e-11</v>
+        <v>3.164670317155333e-11</v>
       </c>
       <c r="C23" t="n">
-        <v>1.522415452032314e-11</v>
+        <v>7.992248170325447e-12</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9912505920494061</v>
+        <v>0.1432854100802422</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -809,13 +809,13 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>5.737718657334503e-11</v>
+        <v>1.282301310558659e-11</v>
       </c>
       <c r="C24" t="n">
-        <v>2.347402244177094e-11</v>
+        <v>7.183379744911573e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9964095622122827</v>
+        <v>0.09960617287945622</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -828,13 +828,13 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>5.871661905185534e-11</v>
+        <v>2.868873577468806e-11</v>
       </c>
       <c r="C25" t="n">
-        <v>2.237100504647572e-11</v>
+        <v>7.913156979061962e-12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996745437962422</v>
+        <v>0.1975957832831032</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>6.152390953581424e-11</v>
+        <v>2.726058909250772e-11</v>
       </c>
       <c r="C26" t="n">
-        <v>2.309213136948365e-11</v>
+        <v>1.133667566348946e-11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999729986467832</v>
+        <v>0.3244813549838951</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>5.066325070684718e-11</v>
+        <v>3.633696940104066e-11</v>
       </c>
       <c r="C27" t="n">
-        <v>1.901280194073739e-11</v>
+        <v>1.115764450031947e-11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9996641379533389</v>
+        <v>0.1686169143259701</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -885,13 +885,13 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>4.992222518983456e-11</v>
+        <v>6.625670369968343e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>1.914403239029637e-11</v>
+        <v>3.459706892786161e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9980017043732612</v>
+        <v>0.0252871173373966</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -904,13 +904,13 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>5.46086073746477e-11</v>
+        <v>3.342136734706867e-11</v>
       </c>
       <c r="C29" t="n">
-        <v>2.108690226419084e-11</v>
+        <v>1.036638654772711e-11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9995093163544129</v>
+        <v>0.707716906713916</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -923,13 +923,13 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>5.590846306422144e-11</v>
+        <v>1.570388552011442e-11</v>
       </c>
       <c r="C30" t="n">
-        <v>2.183121576480838e-11</v>
+        <v>4.978679977083609e-12</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9998091201855709</v>
+        <v>0.1598241095634062</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>4.744257799196047e-11</v>
+        <v>2.586584955829694e-11</v>
       </c>
       <c r="C31" t="n">
-        <v>1.846119791033876e-11</v>
+        <v>7.76564183464594e-12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9969319083765552</v>
+        <v>0.687134576192316</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>4.297953954983831e-11</v>
+        <v>1.708869988764845e-11</v>
       </c>
       <c r="C32" t="n">
-        <v>1.658434276627854e-11</v>
+        <v>7.090177195094879e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9857964792893968</v>
+        <v>0.8703658495227855</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -980,13 +980,13 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>4.108639225933714e-11</v>
+        <v>2.160948545290775e-11</v>
       </c>
       <c r="C33" t="n">
-        <v>1.63774444883445e-11</v>
+        <v>7.812985055637941e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9861037803435697</v>
+        <v>0.3667437204213219</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>4.255641232097448e-11</v>
+        <v>2.211473538708775e-11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.652022774537217e-11</v>
+        <v>6.890750164730733e-12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9960965774005649</v>
+        <v>0.5063115238908538</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>4.241399135506614e-11</v>
+        <v>1.608490814029004e-11</v>
       </c>
       <c r="C35" t="n">
-        <v>1.663580472270593e-11</v>
+        <v>4.146813245167727e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9982874183515535</v>
+        <v>0.04018831579027722</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>3.759311740856842e-11</v>
+        <v>3.078478985621461e-11</v>
       </c>
       <c r="C36" t="n">
-        <v>1.508624689379806e-11</v>
+        <v>6.247099382883894e-12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9968210283163428</v>
+        <v>0.08004324675553194</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1056,13 +1056,13 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.761282316148918e-11</v>
+        <v>4.4247284479601e-11</v>
       </c>
       <c r="C37" t="n">
-        <v>1.128005806713107e-11</v>
+        <v>8.012084250389868e-12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9923151050149708</v>
+        <v>0.433191408919619</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>1.840770358136263e-11</v>
+        <v>2.858586958545972e-11</v>
       </c>
       <c r="C38" t="n">
-        <v>7.401780303134696e-12</v>
+        <v>4.185821930304731e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9982635122247031</v>
+        <v>5.768897063354735e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1094,13 +1094,13 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.869958300349628e-11</v>
+        <v>1.565186302901254e-11</v>
       </c>
       <c r="C39" t="n">
-        <v>1.137142358083443e-11</v>
+        <v>3.936161876872431e-12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9996633833934661</v>
+        <v>0.001054833360285734</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>1.47596358861447e-11</v>
+        <v>3.305460225025222e-11</v>
       </c>
       <c r="C40" t="n">
-        <v>5.839208637691405e-12</v>
+        <v>3.911671408308606e-12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9994735291506226</v>
+        <v>0.07082905684353509</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>1.034650849158309e-11</v>
+        <v>3.581051303134131e-11</v>
       </c>
       <c r="C41" t="n">
-        <v>4.166026281355466e-12</v>
+        <v>3.193730373651197e-12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9570005042879779</v>
+        <v>0.0003438998523346403</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>5.055430331336489e-12</v>
+        <v>4.485062019549792e-11</v>
       </c>
       <c r="C42" t="n">
-        <v>1.997180274435579e-12</v>
+        <v>2.941259754412676e-12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8912270946510019</v>
+        <v>0.00546621879489214</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1170,13 +1170,13 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.417044396219114e-12</v>
+        <v>3.29709099744939e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>1.767413239289503e-12</v>
+        <v>2.299447053302904e-12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9313284365556308</v>
+        <v>9.065026288615873e-14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>3.749428352599899e-12</v>
+        <v>3.791232091301361e-11</v>
       </c>
       <c r="C44" t="n">
-        <v>1.668089597056732e-12</v>
+        <v>3.038334713327353e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7161505627597229</v>
+        <v>0.0008329374368558086</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>2.449641298654603e-12</v>
+        <v>5.396866943703217e-11</v>
       </c>
       <c r="C45" t="n">
-        <v>1.017096458664375e-12</v>
+        <v>2.560360605768525e-12</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6545134329451894</v>
+        <v>2.73801442215794e-16</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>5.245203370170943e-12</v>
+        <v>4.772631542582634e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>2.056398671894794e-12</v>
+        <v>2.493528294219171e-12</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9949959920363203</v>
+        <v>3.110706949201828e-10</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1246,13 +1246,13 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>7.488095147237477e-12</v>
+        <v>4.79026475751909e-11</v>
       </c>
       <c r="C47" t="n">
-        <v>2.960449148589562e-12</v>
+        <v>2.67363839413683e-12</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9597860448996645</v>
+        <v>1.575378473228735e-13</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>8.622707525833013e-12</v>
+        <v>4.21851755465272e-11</v>
       </c>
       <c r="C48" t="n">
-        <v>3.458286833178771e-12</v>
+        <v>2.791355274496655e-12</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9803456534451385</v>
+        <v>5.721164077169139e-11</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1284,13 +1284,13 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>1.401452270511741e-11</v>
+        <v>3.115609809943901e-11</v>
       </c>
       <c r="C49" t="n">
-        <v>5.522379574614865e-12</v>
+        <v>3.032128570229531e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9878387795738485</v>
+        <v>0.0003416617926881219</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1303,13 +1303,13 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>1.612520175161495e-11</v>
+        <v>5.108572579583938e-11</v>
       </c>
       <c r="C50" t="n">
-        <v>6.203161353334004e-12</v>
+        <v>3.56726731374983e-12</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9923590571333317</v>
+        <v>2.795173410991255e-08</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1322,13 +1322,13 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.785359027539527e-11</v>
+        <v>4.401725771362088e-11</v>
       </c>
       <c r="C51" t="n">
-        <v>1.11261540521295e-11</v>
+        <v>7.27199794353131e-12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9978152138674808</v>
+        <v>0.5780189837211258</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>4.853902417765914e-11</v>
+        <v>2.683333115536044e-11</v>
       </c>
       <c r="C52" t="n">
-        <v>1.855588970221479e-11</v>
+        <v>8.619914336677753e-12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.999607773231826</v>
+        <v>1.980264365739879e-06</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1360,14 +1360,12 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12020067748146e-10</v>
+        <v>1.005430228070397e-11</v>
       </c>
       <c r="C53" t="n">
-        <v>4.366735375948225e-11</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9999322264150561</v>
-      </c>
+        <v>9.062825598001257e-12</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>4</t>
@@ -1376,17 +1374,15 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.4601</v>
+        <v>4.47</v>
       </c>
       <c r="B54" t="n">
-        <v>1.655553420560734e-10</v>
+        <v>5.528084365950678e-12</v>
       </c>
       <c r="C54" t="n">
-        <v>6.409046351569876e-11</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9999556023884185</v>
-      </c>
+        <v>4.982947905171043e-12</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>4</t>
@@ -1395,17 +1391,15 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.47</v>
+        <v>4.478</v>
       </c>
       <c r="B55" t="n">
-        <v>1.856708233140129e-10</v>
+        <v>1.787255149385307e-11</v>
       </c>
       <c r="C55" t="n">
-        <v>7.206329174659443e-11</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.999795679659115</v>
-      </c>
+        <v>1.611010016840469e-11</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>4</t>
@@ -1414,16 +1408,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.478</v>
+        <v>4.4861</v>
       </c>
       <c r="B56" t="n">
-        <v>1.333753191726109e-10</v>
+        <v>1.849405727919309e-11</v>
       </c>
       <c r="C56" t="n">
-        <v>5.201785407760682e-11</v>
+        <v>7.982248318899398e-12</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9997101841115219</v>
+        <v>0.39318328798564</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1433,16 +1427,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.4861</v>
+        <v>4.4882</v>
       </c>
       <c r="B57" t="n">
-        <v>6.737061973905157e-11</v>
+        <v>6.883312789333273e-12</v>
       </c>
       <c r="C57" t="n">
-        <v>2.606860943833236e-11</v>
+        <v>3.626169431375937e-12</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9998982965573718</v>
+        <v>0.03449776637329918</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1452,16 +1446,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.4882</v>
+        <v>4.4901</v>
       </c>
       <c r="B58" t="n">
-        <v>4.89296833557298e-11</v>
+        <v>1.993838579570595e-11</v>
       </c>
       <c r="C58" t="n">
-        <v>1.858214860325613e-11</v>
+        <v>7.348688193565174e-12</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999388518339781</v>
+        <v>0.7518801877049317</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1471,16 +1465,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.4901</v>
+        <v>4.4922</v>
       </c>
       <c r="B59" t="n">
-        <v>7.079167548940111e-11</v>
+        <v>4.317118242559529e-11</v>
       </c>
       <c r="C59" t="n">
-        <v>2.739878409988653e-11</v>
+        <v>7.564856641267556e-12</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9997087742554385</v>
+        <v>0.001511257238271152</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1490,16 +1484,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.4922</v>
+        <v>4.495</v>
       </c>
       <c r="B60" t="n">
-        <v>2.549066485677063e-11</v>
+        <v>4.749330440456104e-11</v>
       </c>
       <c r="C60" t="n">
-        <v>1.01230731549188e-11</v>
+        <v>4.223128569642936e-12</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9802966506742289</v>
+        <v>0.003155432738834093</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1509,16 +1503,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.495</v>
+        <v>4.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.926200113235098e-11</v>
+        <v>5.010352398030946e-11</v>
       </c>
       <c r="C61" t="n">
-        <v>7.388447207505312e-12</v>
+        <v>3.47088596036056e-12</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9979397580898797</v>
+        <v>0.0003569086444917979</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1528,16 +1522,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.5</v>
+        <v>4.5102</v>
       </c>
       <c r="B62" t="n">
-        <v>1.107684104335288e-11</v>
+        <v>6.858521109746137e-11</v>
       </c>
       <c r="C62" t="n">
-        <v>4.192396809601524e-12</v>
+        <v>3.300019585169535e-12</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9926386759474947</v>
+        <v>1.734981981279642e-06</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1547,16 +1541,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.5102</v>
+        <v>4.5122</v>
       </c>
       <c r="B63" t="n">
-        <v>7.606455827683825e-12</v>
+        <v>4.925833875916976e-11</v>
       </c>
       <c r="C63" t="n">
-        <v>3.160107379835016e-12</v>
+        <v>4.641195876913618e-12</v>
       </c>
       <c r="D63" t="n">
-        <v>0.95351440219803</v>
+        <v>0.008290016890814586</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1566,16 +1560,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.5122</v>
+        <v>4.5151</v>
       </c>
       <c r="B64" t="n">
-        <v>1.300450843207035e-11</v>
+        <v>3.839236871146976e-11</v>
       </c>
       <c r="C64" t="n">
-        <v>5.325368704390033e-12</v>
+        <v>9.135967056916613e-12</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9947680037072277</v>
+        <v>0.7391363924223817</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1585,16 +1579,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.5151</v>
+        <v>4.5201</v>
       </c>
       <c r="B65" t="n">
-        <v>3.471964367091955e-11</v>
+        <v>1.675868699448651e-11</v>
       </c>
       <c r="C65" t="n">
-        <v>1.348854027618666e-11</v>
+        <v>6.459757085439086e-12</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9994826314798795</v>
+        <v>0.1087535146907702</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1604,16 +1598,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.5201</v>
+        <v>4.5252</v>
       </c>
       <c r="B66" t="n">
-        <v>5.373652588407475e-11</v>
+        <v>2.5863310108944e-11</v>
       </c>
       <c r="C66" t="n">
-        <v>2.090028629029641e-11</v>
+        <v>1.343545322886541e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.990431539580656</v>
+        <v>0.7382772883626243</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1623,16 +1617,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.5252</v>
+        <v>4.5294</v>
       </c>
       <c r="B67" t="n">
-        <v>9.864005487711937e-11</v>
+        <v>9.874833697643904e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>3.788385164244658e-11</v>
+        <v>4.741095192665029e-12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9988363099351815</v>
+        <v>0.554335496981774</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1642,17 +1636,15 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.5294</v>
+        <v>4.5351</v>
       </c>
       <c r="B68" t="n">
-        <v>1.116624372477531e-10</v>
+        <v>1.583367889056947e-11</v>
       </c>
       <c r="C68" t="n">
-        <v>4.286349754856123e-11</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9991454034096064</v>
-      </c>
+        <v>1.217405020060989e-11</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>4</t>
@@ -1661,17 +1653,15 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.5351</v>
+        <v>4.58</v>
       </c>
       <c r="B69" t="n">
-        <v>1.703714949283563e-10</v>
+        <v>4.546853603691332e-11</v>
       </c>
       <c r="C69" t="n">
-        <v>6.691607381179724e-11</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9982942321343451</v>
-      </c>
+        <v>4.098478454733494e-11</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>4</t>
@@ -1680,16 +1670,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.5402</v>
+        <v>4.5901</v>
       </c>
       <c r="B70" t="n">
-        <v>1.953168201223424e-10</v>
+        <v>8.266326113641762e-12</v>
       </c>
       <c r="C70" t="n">
-        <v>7.542210569358626e-11</v>
+        <v>3.440590305264894e-12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9988876872495308</v>
+        <v>0.0008742529858060706</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1699,16 +1689,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.5498</v>
+        <v>4.6003</v>
       </c>
       <c r="B71" t="n">
-        <v>2.974399453352384e-10</v>
+        <v>3.97199113038543e-11</v>
       </c>
       <c r="C71" t="n">
-        <v>1.136406624652277e-10</v>
+        <v>2.170429580523657e-11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9997784928391499</v>
+        <v>0.7388153351071511</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1718,16 +1708,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5602</v>
+        <v>4.61</v>
       </c>
       <c r="B72" t="n">
-        <v>4.661876691182542e-10</v>
+        <v>6.365108702537867e-11</v>
       </c>
       <c r="C72" t="n">
-        <v>1.799219309349398e-10</v>
+        <v>4.078441218739618e-10</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999386297868896</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1737,17 +1727,15 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.5701</v>
+        <v>4.6202</v>
       </c>
       <c r="B73" t="n">
-        <v>4.289342494440113e-10</v>
+        <v>2.830040397232906e-11</v>
       </c>
       <c r="C73" t="n">
-        <v>1.649678308200802e-10</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9996685506142781</v>
-      </c>
+        <v>2.458812340886132e-11</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>4</t>
@@ -1756,16 +1744,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.58</v>
+        <v>4.6299</v>
       </c>
       <c r="B74" t="n">
-        <v>2.071894651848417e-10</v>
+        <v>4.779038492487743e-11</v>
       </c>
       <c r="C74" t="n">
-        <v>8.169927504451621e-11</v>
+        <v>4.526379632604264e-11</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9974795178962828</v>
+        <v>0.6374413864042798</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1775,16 +1763,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.5901</v>
+        <v>4.6352</v>
       </c>
       <c r="B75" t="n">
-        <v>1.067755353618402e-10</v>
+        <v>4.730492799312759e-11</v>
       </c>
       <c r="C75" t="n">
-        <v>4.110531804757653e-11</v>
+        <v>1.70112692591004e-11</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999666825039272</v>
+        <v>0.0431797999142765</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1794,16 +1782,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.6003</v>
+        <v>4.64</v>
       </c>
       <c r="B76" t="n">
-        <v>8.098229463504962e-11</v>
+        <v>3.498564079070925e-11</v>
       </c>
       <c r="C76" t="n">
-        <v>3.124244642775356e-11</v>
+        <v>1.242647831798495e-11</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9988135084568938</v>
+        <v>0.1205676054139213</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1813,16 +1801,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="B77" t="n">
-        <v>1.962317948027266e-10</v>
+        <v>1.244585467407081e-10</v>
       </c>
       <c r="C77" t="n">
-        <v>7.435425355544206e-11</v>
+        <v>1.482853107249615e-11</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999713068537506</v>
+        <v>0.3300580750057149</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1832,16 +1820,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.6202</v>
+        <v>4.6701</v>
       </c>
       <c r="B78" t="n">
-        <v>1.996539750778386e-10</v>
+        <v>1.481289815076588e-10</v>
       </c>
       <c r="C78" t="n">
-        <v>7.781303237236684e-11</v>
+        <v>9.671612463969865e-12</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9986101777989855</v>
+        <v>0.05928363171493336</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1851,16 +1839,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.6299</v>
+        <v>4.6802</v>
       </c>
       <c r="B79" t="n">
-        <v>1.611060041215719e-10</v>
+        <v>1.157279552574267e-10</v>
       </c>
       <c r="C79" t="n">
-        <v>6.23986004637638e-11</v>
+        <v>6.566688607598226e-12</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9997979088126785</v>
+        <v>0.0002568360261845212</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1870,16 +1858,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.6352</v>
+        <v>4.6899</v>
       </c>
       <c r="B80" t="n">
-        <v>9.120642327127688e-11</v>
+        <v>1.211641358131595e-10</v>
       </c>
       <c r="C80" t="n">
-        <v>3.494413459275557e-11</v>
+        <v>5.780345920971954e-12</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999951398013804</v>
+        <v>1.254322719368999e-09</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1889,16 +1877,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.64</v>
+        <v>4.71</v>
       </c>
       <c r="B81" t="n">
-        <v>5.477910987080567e-11</v>
+        <v>1.46380754766653e-10</v>
       </c>
       <c r="C81" t="n">
-        <v>2.089676545118542e-11</v>
+        <v>5.037132123656516e-12</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9992904972748281</v>
+        <v>2.331800849957576e-07</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1908,16 +1896,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="B82" t="n">
-        <v>5.248948124347844e-11</v>
+        <v>1.50014641418649e-10</v>
       </c>
       <c r="C82" t="n">
-        <v>1.992089435494906e-11</v>
+        <v>5.743428806450785e-12</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9980169279135735</v>
+        <v>5.396569456815918e-07</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1927,16 +1915,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.6701</v>
+        <v>4.75</v>
       </c>
       <c r="B83" t="n">
-        <v>3.022719513973948e-11</v>
+        <v>1.700406251306373e-10</v>
       </c>
       <c r="C83" t="n">
-        <v>1.146215545102198e-11</v>
+        <v>7.484054703000106e-12</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9990582478733374</v>
+        <v>0.003415913722238865</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1946,16 +1934,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.6802</v>
+        <v>4.7552</v>
       </c>
       <c r="B84" t="n">
-        <v>1.816041834191681e-11</v>
+        <v>1.199865062125551e-10</v>
       </c>
       <c r="C84" t="n">
-        <v>7.139656375076461e-12</v>
+        <v>9.875227684060812e-12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9973876036196392</v>
+        <v>0.1208722480013459</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1965,16 +1953,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.6899</v>
+        <v>4.7589</v>
       </c>
       <c r="B85" t="n">
-        <v>1.297534330577548e-11</v>
+        <v>1.449475591807495e-10</v>
       </c>
       <c r="C85" t="n">
-        <v>5.595987701956723e-12</v>
+        <v>1.078933685325605e-11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9781891104064918</v>
+        <v>0.07105443536070266</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1984,16 +1972,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.71</v>
+        <v>4.77</v>
       </c>
       <c r="B86" t="n">
-        <v>1.309887479888748e-11</v>
+        <v>1.504050616852781e-10</v>
       </c>
       <c r="C86" t="n">
-        <v>5.121123394232089e-12</v>
+        <v>1.257043837842148e-11</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9944288987573096</v>
+        <v>0.5095795339354572</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2003,16 +1991,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.73</v>
+        <v>4.775</v>
       </c>
       <c r="B87" t="n">
-        <v>9.058254441187668e-12</v>
+        <v>1.002054945101218e-10</v>
       </c>
       <c r="C87" t="n">
-        <v>3.74239921948028e-12</v>
+        <v>1.195923074627466e-11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9754631482661719</v>
+        <v>0.08594451265771588</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2022,16 +2010,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.75</v>
+        <v>4.7802</v>
       </c>
       <c r="B88" t="n">
-        <v>1.49356973979972e-11</v>
+        <v>2.139805620033354e-11</v>
       </c>
       <c r="C88" t="n">
-        <v>6.026407278733267e-12</v>
+        <v>1.131760713587269e-11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9890365980365499</v>
+        <v>0.000375648534046259</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2041,16 +2029,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.7552</v>
+        <v>4.7901</v>
       </c>
       <c r="B89" t="n">
-        <v>2.897498438649181e-11</v>
+        <v>7.972964231984418e-11</v>
       </c>
       <c r="C89" t="n">
-        <v>1.080241234283747e-11</v>
+        <v>2.053929789408093e-11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9959532606568986</v>
+        <v>0.2404655111356347</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2060,16 +2048,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.7589</v>
+        <v>4.7999</v>
       </c>
       <c r="B90" t="n">
-        <v>3.155776014331131e-11</v>
+        <v>1.389161681704139e-10</v>
       </c>
       <c r="C90" t="n">
-        <v>1.180293745550036e-11</v>
+        <v>1.928213885410352e-11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9964473100260139</v>
+        <v>0.8039934815976129</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2079,16 +2067,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="B91" t="n">
-        <v>3.977050031790869e-11</v>
+        <v>1.680821334495433e-10</v>
       </c>
       <c r="C91" t="n">
-        <v>1.517562242100822e-11</v>
+        <v>1.610515607226284e-11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9943392932030481</v>
+        <v>0.3239581658688908</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2098,16 +2086,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.775</v>
+        <v>4.8122</v>
       </c>
       <c r="B92" t="n">
-        <v>5.00558471433259e-11</v>
+        <v>1.61581436896039e-10</v>
       </c>
       <c r="C92" t="n">
-        <v>1.931484879487499e-11</v>
+        <v>1.095140498284981e-11</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9990269023983176</v>
+        <v>0.0005150070099122282</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2117,16 +2105,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.7802</v>
+        <v>4.8153</v>
       </c>
       <c r="B93" t="n">
-        <v>8.413739995611107e-11</v>
+        <v>1.762974242967178e-10</v>
       </c>
       <c r="C93" t="n">
-        <v>3.184700049963154e-11</v>
+        <v>8.816239754233059e-12</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9996870508268608</v>
+        <v>8.527191645784667e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2136,16 +2124,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.7901</v>
+        <v>4.8201</v>
       </c>
       <c r="B94" t="n">
-        <v>1.031378495712402e-10</v>
+        <v>1.346061335460188e-10</v>
       </c>
       <c r="C94" t="n">
-        <v>3.926438126970763e-11</v>
+        <v>6.113451998006124e-12</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9990954269030585</v>
+        <v>0.001227619877364176</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2155,16 +2143,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.7999</v>
+        <v>4.8299</v>
       </c>
       <c r="B95" t="n">
-        <v>9.794471897735104e-11</v>
+        <v>1.752052685866647e-10</v>
       </c>
       <c r="C95" t="n">
-        <v>3.727481054651392e-11</v>
+        <v>5.741708872215598e-12</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9991785008156541</v>
+        <v>8.400322857841599e-06</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2174,16 +2162,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="B96" t="n">
-        <v>4.556079060992225e-11</v>
+        <v>1.965696061965737e-10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.685916155890495e-11</v>
+        <v>5.869131466660459e-12</v>
       </c>
       <c r="D96" t="n">
-        <v>0.999784949117721</v>
+        <v>1.48907412142412e-06</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2193,16 +2181,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.8122</v>
+        <v>4.8663</v>
       </c>
       <c r="B97" t="n">
-        <v>2.522922689411408e-11</v>
+        <v>1.930778446513698e-10</v>
       </c>
       <c r="C97" t="n">
-        <v>9.750893929929644e-12</v>
+        <v>6.216404527357829e-12</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9749548038151703</v>
+        <v>0.0001646059859654502</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2212,16 +2200,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.8153</v>
+        <v>4.8899</v>
       </c>
       <c r="B98" t="n">
-        <v>2.198517919287032e-11</v>
+        <v>2.126192660013033e-10</v>
       </c>
       <c r="C98" t="n">
-        <v>8.737707376395013e-12</v>
+        <v>6.561833346274301e-12</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9863049825868673</v>
+        <v>2.0795485099056e-07</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2231,16 +2219,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.8201</v>
+        <v>4.8999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.414395364362034e-11</v>
+        <v>1.806343313820501e-10</v>
       </c>
       <c r="C99" t="n">
-        <v>5.667222853632452e-12</v>
+        <v>8.543446619516106e-12</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9619859447966598</v>
+        <v>2.107654851667142e-07</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2250,16 +2238,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.8299</v>
+        <v>4.9101</v>
       </c>
       <c r="B100" t="n">
-        <v>1.112492419195483e-11</v>
+        <v>1.929652322797366e-10</v>
       </c>
       <c r="C100" t="n">
-        <v>4.229546004154738e-12</v>
+        <v>9.178826990568628e-12</v>
       </c>
       <c r="D100" t="n">
-        <v>0.977150836444142</v>
+        <v>6.374009775455657e-08</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2269,16 +2257,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.85</v>
+        <v>4.92</v>
       </c>
       <c r="B101" t="n">
-        <v>1.145725547016984e-11</v>
+        <v>1.388752867288858e-10</v>
       </c>
       <c r="C101" t="n">
-        <v>4.463103418434184e-12</v>
+        <v>9.091191049725163e-12</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9658722029659372</v>
+        <v>6.49557625805038e-13</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2288,16 +2276,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.8663</v>
+        <v>4.9262</v>
       </c>
       <c r="B102" t="n">
-        <v>1.253860881312881e-11</v>
+        <v>1.509307988216402e-10</v>
       </c>
       <c r="C102" t="n">
-        <v>4.810191145826861e-12</v>
+        <v>8.125904246147128e-12</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9294151757929908</v>
+        <v>7.749197686060155e-20</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2307,16 +2295,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.8899</v>
+        <v>4.9302</v>
       </c>
       <c r="B103" t="n">
-        <v>2.024674318855698e-11</v>
+        <v>1.626787757666574e-10</v>
       </c>
       <c r="C103" t="n">
-        <v>8.018791501686111e-12</v>
+        <v>1.012539272131147e-11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9466115398823769</v>
+        <v>3.018635406740643e-11</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2326,16 +2314,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.8999</v>
+        <v>4.9369</v>
       </c>
       <c r="B104" t="n">
-        <v>3.129752760974442e-11</v>
+        <v>1.787169634678788e-10</v>
       </c>
       <c r="C104" t="n">
-        <v>1.198721045349355e-11</v>
+        <v>1.042294201008649e-11</v>
       </c>
       <c r="D104" t="n">
-        <v>0.989194305263674</v>
+        <v>1.265868737178787e-18</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2345,16 +2333,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.9101</v>
+        <v>4.9467</v>
       </c>
       <c r="B105" t="n">
-        <v>3.878966782090918e-11</v>
+        <v>1.663150961206721e-10</v>
       </c>
       <c r="C105" t="n">
-        <v>1.488462675826284e-11</v>
+        <v>9.412417264097485e-12</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9793796906225014</v>
+        <v>1.588981089572958e-21</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2364,16 +2352,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.92</v>
+        <v>4.9503</v>
       </c>
       <c r="B106" t="n">
-        <v>5.837851734947188e-11</v>
+        <v>1.943253389088157e-10</v>
       </c>
       <c r="C106" t="n">
-        <v>2.227533182164729e-11</v>
+        <v>1.149112935627489e-11</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9968940754309454</v>
+        <v>2.762999748565936e-10</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2383,16 +2371,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.9262</v>
+        <v>4.9568</v>
       </c>
       <c r="B107" t="n">
-        <v>6.126859573052989e-11</v>
+        <v>1.832489863841307e-10</v>
       </c>
       <c r="C107" t="n">
-        <v>2.336891884915935e-11</v>
+        <v>1.189199456707899e-11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9869356291903565</v>
+        <v>3.261125325704557e-19</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2402,16 +2390,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.9302</v>
+        <v>4.9619</v>
       </c>
       <c r="B108" t="n">
-        <v>5.963519974729201e-11</v>
+        <v>1.953566086815306e-10</v>
       </c>
       <c r="C108" t="n">
-        <v>2.288814580630127e-11</v>
+        <v>1.231114788194209e-11</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9681465797198658</v>
+        <v>3.263161901183093e-14</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2421,16 +2409,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.9369</v>
+        <v>4.9647</v>
       </c>
       <c r="B109" t="n">
-        <v>7.344787614490487e-11</v>
+        <v>1.704668446700419e-10</v>
       </c>
       <c r="C109" t="n">
-        <v>2.795007218297627e-11</v>
+        <v>1.223077933489075e-11</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9878394316003699</v>
+        <v>5.143435319422941e-18</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2440,16 +2428,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.9467</v>
+        <v>4.9679</v>
       </c>
       <c r="B110" t="n">
-        <v>8.676535721409104e-11</v>
+        <v>1.935032540813914e-10</v>
       </c>
       <c r="C110" t="n">
-        <v>3.276737710012301e-11</v>
+        <v>1.30284544964452e-11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9910354830582089</v>
+        <v>1.012376101056872e-08</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2459,16 +2447,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.9503</v>
+        <v>4.97</v>
       </c>
       <c r="B111" t="n">
-        <v>9.074039188764664e-11</v>
+        <v>2.201614345874537e-10</v>
       </c>
       <c r="C111" t="n">
-        <v>3.494869664321156e-11</v>
+        <v>1.60478380762193e-11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9808500778624584</v>
+        <v>3.95036401849491e-17</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2478,16 +2466,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.9568</v>
+        <v>4.9728</v>
       </c>
       <c r="B112" t="n">
-        <v>9.7763464588568e-11</v>
+        <v>1.385559005942627e-10</v>
       </c>
       <c r="C112" t="n">
-        <v>3.722313919501566e-11</v>
+        <v>8.53496362314942e-12</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9878955356600394</v>
+        <v>2.15309423557045e-17</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2497,16 +2485,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.9619</v>
+        <v>4.9746</v>
       </c>
       <c r="B113" t="n">
-        <v>9.569436963037778e-11</v>
+        <v>1.733832573008221e-10</v>
       </c>
       <c r="C113" t="n">
-        <v>3.649937375423244e-11</v>
+        <v>1.264402417612123e-11</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9868181482543918</v>
+        <v>1.207548513101307e-11</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2516,16 +2504,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.9647</v>
+        <v>4.9847</v>
       </c>
       <c r="B114" t="n">
-        <v>1.003896190928743e-10</v>
+        <v>1.173528080714345e-10</v>
       </c>
       <c r="C114" t="n">
-        <v>3.802553297890404e-11</v>
+        <v>7.192105869656019e-12</v>
       </c>
       <c r="D114" t="n">
-        <v>0.992473818240874</v>
+        <v>1.188267173091525e-28</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2535,16 +2523,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.9679</v>
+        <v>4.9901</v>
       </c>
       <c r="B115" t="n">
-        <v>1.005083746691196e-10</v>
+        <v>1.530516480066134e-10</v>
       </c>
       <c r="C115" t="n">
-        <v>3.844577368119221e-11</v>
+        <v>9.991323958630871e-12</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9918010739291653</v>
+        <v>2.665391485082103e-17</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2554,16 +2542,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.97</v>
+        <v>4.9947</v>
       </c>
       <c r="B116" t="n">
-        <v>9.999495945780758e-11</v>
+        <v>1.610174175406423e-10</v>
       </c>
       <c r="C116" t="n">
-        <v>3.81231495255551e-11</v>
+        <v>8.115181326934837e-12</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9838667198895676</v>
+        <v>2.779799212521849e-12</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2573,16 +2561,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.9728</v>
+        <v>5.0046</v>
       </c>
       <c r="B117" t="n">
-        <v>9.509477180003877e-11</v>
+        <v>1.897967062280343e-10</v>
       </c>
       <c r="C117" t="n">
-        <v>3.632902135629608e-11</v>
+        <v>7.271399570500351e-12</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9876051550133054</v>
+        <v>3.299078904427834e-11</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2592,16 +2580,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9746</v>
+        <v>5.01</v>
       </c>
       <c r="B118" t="n">
-        <v>9.510282480146288e-11</v>
+        <v>2.030600652232192e-10</v>
       </c>
       <c r="C118" t="n">
-        <v>3.621713528564512e-11</v>
+        <v>1.004143480487564e-11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9944221188559944</v>
+        <v>2.246704228316188e-10</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2611,16 +2599,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.9847</v>
+        <v>5.0148</v>
       </c>
       <c r="B119" t="n">
-        <v>8.067770946696816e-11</v>
+        <v>1.988831070410815e-10</v>
       </c>
       <c r="C119" t="n">
-        <v>3.063043611041308e-11</v>
+        <v>8.902444849356717e-12</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9874466888946138</v>
+        <v>1.389793238323876e-06</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2630,16 +2618,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.9901</v>
+        <v>5.0177</v>
       </c>
       <c r="B120" t="n">
-        <v>7.306456539437659e-11</v>
+        <v>1.860372366879585e-10</v>
       </c>
       <c r="C120" t="n">
-        <v>2.785575510193217e-11</v>
+        <v>8.98002739109592e-12</v>
       </c>
       <c r="D120" t="n">
-        <v>0.983479054937745</v>
+        <v>1.217018592889857e-08</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2649,16 +2637,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.9947</v>
+        <v>5.0179</v>
       </c>
       <c r="B121" t="n">
-        <v>6.42689531276282e-11</v>
+        <v>1.959302216899484e-10</v>
       </c>
       <c r="C121" t="n">
-        <v>2.457204637546874e-11</v>
+        <v>9.114952838770874e-12</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9861433142709569</v>
+        <v>9.533368480526148e-07</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2668,16 +2656,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>5.0046</v>
+        <v>5.0198</v>
       </c>
       <c r="B122" t="n">
-        <v>5.257607157643903e-11</v>
+        <v>2.009018302361183e-10</v>
       </c>
       <c r="C122" t="n">
-        <v>2.012608862567744e-11</v>
+        <v>1.154402907106023e-11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9844052690383659</v>
+        <v>9.193645946791208e-06</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2687,16 +2675,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.01</v>
+        <v>5.0248</v>
       </c>
       <c r="B123" t="n">
-        <v>4.824434658448768e-11</v>
+        <v>1.640800323748039e-10</v>
       </c>
       <c r="C123" t="n">
-        <v>1.830309755243909e-11</v>
+        <v>1.729398979723358e-11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9872785560084161</v>
+        <v>0.0002448714532541392</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2706,16 +2694,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.0148</v>
+        <v>5.0278</v>
       </c>
       <c r="B124" t="n">
-        <v>5.206026672504988e-11</v>
+        <v>1.908384393654625e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>2.01147559937543e-11</v>
+        <v>1.927451967716774e-11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9840060657578764</v>
+        <v>0.5286525737743952</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2725,16 +2713,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.0177</v>
+        <v>5.0301</v>
       </c>
       <c r="B125" t="n">
-        <v>5.182314354136314e-11</v>
+        <v>2.229385396764407e-10</v>
       </c>
       <c r="C125" t="n">
-        <v>1.987854353832179e-11</v>
+        <v>2.079811620775115e-11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9963855356526191</v>
+        <v>0.03161734079868561</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2744,16 +2732,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.0179</v>
+        <v>5.0328</v>
       </c>
       <c r="B126" t="n">
-        <v>4.751689918653543e-11</v>
+        <v>1.51897162064477e-10</v>
       </c>
       <c r="C126" t="n">
-        <v>1.822582542695015e-11</v>
+        <v>1.821588645229829e-11</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9793924627043815</v>
+        <v>0.001321511609721975</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2763,16 +2751,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.0198</v>
+        <v>5.0359</v>
       </c>
       <c r="B127" t="n">
-        <v>5.920489868462901e-11</v>
+        <v>1.872315613815101e-10</v>
       </c>
       <c r="C127" t="n">
-        <v>2.265793512825741e-11</v>
+        <v>2.036620321715807e-11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9954490228769156</v>
+        <v>0.1510592565887537</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2782,16 +2770,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.0248</v>
+        <v>5.0387</v>
       </c>
       <c r="B128" t="n">
-        <v>7.34279189294237e-11</v>
+        <v>1.659339235435299e-10</v>
       </c>
       <c r="C128" t="n">
-        <v>2.808565661178598e-11</v>
+        <v>1.963332101568066e-11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9995043620354932</v>
+        <v>0.0001293527276984558</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2801,16 +2789,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0278</v>
+        <v>5.042</v>
       </c>
       <c r="B129" t="n">
-        <v>7.923327076280565e-11</v>
+        <v>1.887140800354663e-10</v>
       </c>
       <c r="C129" t="n">
-        <v>3.032326162071341e-11</v>
+        <v>2.10791603641985e-11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9955154786304383</v>
+        <v>0.152819335293542</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2820,16 +2808,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.0301</v>
+        <v>5.0448</v>
       </c>
       <c r="B130" t="n">
-        <v>8.212908119492883e-11</v>
+        <v>1.739770447653185e-10</v>
       </c>
       <c r="C130" t="n">
-        <v>3.124650735894341e-11</v>
+        <v>1.960923318796924e-11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9952492232583793</v>
+        <v>4.805440864572254e-05</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2839,16 +2827,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0328</v>
+        <v>5.05</v>
       </c>
       <c r="B131" t="n">
-        <v>9.057112551918961e-11</v>
+        <v>1.87727901342712e-10</v>
       </c>
       <c r="C131" t="n">
-        <v>3.454352191636814e-11</v>
+        <v>2.02495298478232e-11</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9964583376336968</v>
+        <v>0.1453410828488313</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2858,16 +2846,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.0359</v>
+        <v>5.0548</v>
       </c>
       <c r="B132" t="n">
-        <v>9.821068303214862e-11</v>
+        <v>2.249721361168698e-10</v>
       </c>
       <c r="C132" t="n">
-        <v>3.695666619841282e-11</v>
+        <v>1.772027995695871e-11</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9995181298189663</v>
+        <v>0.3794128054221341</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2877,16 +2865,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0387</v>
+        <v>5.0649</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08020715827974e-10</v>
+        <v>2.114944779215581e-10</v>
       </c>
       <c r="C133" t="n">
-        <v>4.113248537286069e-11</v>
+        <v>1.315969214143782e-11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.998251947347347</v>
+        <v>0.002884964102453277</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2896,16 +2884,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.042</v>
+        <v>5.0699</v>
       </c>
       <c r="B134" t="n">
-        <v>1.067937769545406e-10</v>
+        <v>2.595948312867741e-10</v>
       </c>
       <c r="C134" t="n">
-        <v>4.031183025297351e-11</v>
+        <v>1.42474043283025e-11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.998027554669802</v>
+        <v>0.001540968369588991</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2915,16 +2903,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.0448</v>
+        <v>5.0745</v>
       </c>
       <c r="B135" t="n">
-        <v>9.476268004084465e-11</v>
+        <v>2.27085768001756e-10</v>
       </c>
       <c r="C135" t="n">
-        <v>3.613199608992188e-11</v>
+        <v>1.030967272743364e-11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9982925534656761</v>
+        <v>0.1282441864721358</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2934,16 +2922,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.05</v>
+        <v>5.0842</v>
       </c>
       <c r="B136" t="n">
-        <v>8.494577321127148e-11</v>
+        <v>2.178807754734776e-10</v>
       </c>
       <c r="C136" t="n">
-        <v>3.184384390134915e-11</v>
+        <v>1.023109232439624e-11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9986958448251095</v>
+        <v>0.0003546185955136127</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2953,16 +2941,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.0548</v>
+        <v>5.09</v>
       </c>
       <c r="B137" t="n">
-        <v>6.521210587191606e-11</v>
+        <v>2.310507901458135e-10</v>
       </c>
       <c r="C137" t="n">
-        <v>2.482162874239169e-11</v>
+        <v>1.135695226625722e-11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9978821913450312</v>
+        <v>1.831993138238274e-05</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2972,16 +2960,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.0649</v>
+        <v>5.0937</v>
       </c>
       <c r="B138" t="n">
-        <v>4.514655531963124e-11</v>
+        <v>2.201366576819207e-10</v>
       </c>
       <c r="C138" t="n">
-        <v>1.716925412538803e-11</v>
+        <v>2.022071455623192e-11</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9812094317232001</v>
+        <v>0.6434185584206393</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2991,16 +2979,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.0699</v>
+        <v>5.0968</v>
       </c>
       <c r="B139" t="n">
-        <v>4.294248844088939e-11</v>
+        <v>1.808278925258915e-10</v>
       </c>
       <c r="C139" t="n">
-        <v>1.64607628510423e-11</v>
+        <v>2.09850409189245e-11</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9955057847194165</v>
+        <v>0.3538886697233959</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3010,16 +2998,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.0745</v>
+        <v>5.0989</v>
       </c>
       <c r="B140" t="n">
-        <v>3.320735998134432e-11</v>
+        <v>1.687649107613494e-10</v>
       </c>
       <c r="C140" t="n">
-        <v>1.279987664129051e-11</v>
+        <v>2.433298278875367e-11</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9887638644380123</v>
+        <v>0.7602697807023404</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3029,16 +3017,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.0842</v>
+        <v>5.1</v>
       </c>
       <c r="B141" t="n">
-        <v>2.717044904502203e-11</v>
+        <v>1.512494909561444e-10</v>
       </c>
       <c r="C141" t="n">
-        <v>1.038861129805859e-11</v>
+        <v>2.535379268396652e-11</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9889358585738531</v>
+        <v>0.7876346667261112</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3048,16 +3036,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.09</v>
+        <v>5.1004</v>
       </c>
       <c r="B142" t="n">
-        <v>2.699516982430102e-11</v>
+        <v>1.718074947129747e-10</v>
       </c>
       <c r="C142" t="n">
-        <v>1.022999400619161e-11</v>
+        <v>2.636044441458026e-11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9952270209880264</v>
+        <v>0.9425035922392976</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3067,16 +3055,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.0937</v>
+        <v>5.1007</v>
       </c>
       <c r="B143" t="n">
-        <v>5.520443242890561e-11</v>
+        <v>1.722982463681363e-10</v>
       </c>
       <c r="C143" t="n">
-        <v>2.093150991203011e-11</v>
+        <v>2.865821217995511e-11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9997616316155367</v>
+        <v>0.9390430688944734</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3086,16 +3074,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.0968</v>
+        <v>5.1029</v>
       </c>
       <c r="B144" t="n">
-        <v>1.011482984050004e-10</v>
+        <v>1.708217506808817e-10</v>
       </c>
       <c r="C144" t="n">
-        <v>3.818979534479761e-11</v>
+        <v>2.935872544554528e-11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9989122710588987</v>
+        <v>0.9576724029235898</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3105,16 +3093,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.0989</v>
+        <v>5.1049</v>
       </c>
       <c r="B145" t="n">
-        <v>1.156179169321807e-10</v>
+        <v>1.461665340010398e-10</v>
       </c>
       <c r="C145" t="n">
-        <v>4.376436225647682e-11</v>
+        <v>2.739080534548761e-11</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9995264122975535</v>
+        <v>0.1268785782814058</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3124,16 +3112,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.1</v>
+        <v>5.1069</v>
       </c>
       <c r="B146" t="n">
-        <v>1.135362870098183e-10</v>
+        <v>1.653721453216735e-10</v>
       </c>
       <c r="C146" t="n">
-        <v>4.303805735791134e-11</v>
+        <v>2.961294519703156e-11</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9999975884470355</v>
+        <v>0.937417148733966</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3143,16 +3131,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.1004</v>
+        <v>5.1088</v>
       </c>
       <c r="B147" t="n">
-        <v>1.156328564811737e-10</v>
+        <v>1.804390542834923e-10</v>
       </c>
       <c r="C147" t="n">
-        <v>4.3776020564078e-11</v>
+        <v>2.972167087619403e-11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9996973975524985</v>
+        <v>0.2614726093109744</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3162,16 +3150,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.1007</v>
+        <v>5.11</v>
       </c>
       <c r="B148" t="n">
-        <v>1.102462923017473e-10</v>
+        <v>1.669249709467226e-10</v>
       </c>
       <c r="C148" t="n">
-        <v>4.195023375151147e-11</v>
+        <v>3.007258334845276e-11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9985951997685411</v>
+        <v>0.877682574384399</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3181,16 +3169,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.1029</v>
+        <v>5.1108</v>
       </c>
       <c r="B149" t="n">
-        <v>1.384928999749908e-10</v>
+        <v>1.577622221959731e-10</v>
       </c>
       <c r="C149" t="n">
-        <v>5.20524204627518e-11</v>
+        <v>3.048378711361676e-11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.999845898166721</v>
+        <v>0.3817894336859228</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3200,16 +3188,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.1049</v>
+        <v>5.1138</v>
       </c>
       <c r="B150" t="n">
-        <v>1.434135938486933e-10</v>
+        <v>1.450446468736923e-10</v>
       </c>
       <c r="C150" t="n">
-        <v>5.394877791895045e-11</v>
+        <v>2.603763427791094e-11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9999742031489646</v>
+        <v>0.3873853885593144</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3219,16 +3207,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.1069</v>
+        <v>5.1188</v>
       </c>
       <c r="B151" t="n">
-        <v>1.47125643170791e-10</v>
+        <v>1.606180591885517e-10</v>
       </c>
       <c r="C151" t="n">
-        <v>5.59758688779929e-11</v>
+        <v>2.090594981673963e-11</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9998736041616283</v>
+        <v>6.284419569223246e-07</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3238,16 +3226,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1088</v>
+        <v>5.1238</v>
       </c>
       <c r="B152" t="n">
-        <v>1.527645047738308e-10</v>
+        <v>2.781336150439353e-10</v>
       </c>
       <c r="C152" t="n">
-        <v>5.775194200143446e-11</v>
+        <v>2.285083351356885e-11</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9999157490186906</v>
+        <v>0.3920353467020207</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3257,16 +3245,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.11</v>
+        <v>5.1285</v>
       </c>
       <c r="B153" t="n">
-        <v>1.457729367657226e-10</v>
+        <v>3.047345523196636e-10</v>
       </c>
       <c r="C153" t="n">
-        <v>5.458405454950875e-11</v>
+        <v>1.711230432836236e-11</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9999836868240136</v>
+        <v>0.7486850487096808</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3276,16 +3264,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.1108</v>
+        <v>5.1299</v>
       </c>
       <c r="B154" t="n">
-        <v>1.358640826720163e-10</v>
+        <v>2.989592271164744e-10</v>
       </c>
       <c r="C154" t="n">
-        <v>5.120785410110374e-11</v>
+        <v>2.067307965584517e-11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.997887162641139</v>
+        <v>0.7161158324889038</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3295,16 +3283,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.1138</v>
+        <v>5.1338</v>
       </c>
       <c r="B155" t="n">
-        <v>1.366563191252952e-10</v>
+        <v>2.852901269574859e-10</v>
       </c>
       <c r="C155" t="n">
-        <v>5.109221796326338e-11</v>
+        <v>1.571740267372016e-11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9999245696314294</v>
+        <v>0.0009395124046086854</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3314,16 +3302,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.1188</v>
+        <v>5.1389</v>
       </c>
       <c r="B156" t="n">
-        <v>1.225123169211207e-10</v>
+        <v>2.969271298537945e-10</v>
       </c>
       <c r="C156" t="n">
-        <v>4.668214430259918e-11</v>
+        <v>1.831718074751099e-11</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9996966841602438</v>
+        <v>0.4046585689651548</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3333,16 +3321,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1238</v>
+        <v>5.1417</v>
       </c>
       <c r="B157" t="n">
-        <v>9.744915543613126e-11</v>
+        <v>3.092129898238008e-10</v>
       </c>
       <c r="C157" t="n">
-        <v>3.715461924954352e-11</v>
+        <v>1.754299245665083e-11</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9984480773194605</v>
+        <v>0.2022275747141631</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3352,16 +3340,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.1285</v>
+        <v>5.1447</v>
       </c>
       <c r="B158" t="n">
-        <v>6.981346092296121e-11</v>
+        <v>3.040399105650569e-10</v>
       </c>
       <c r="C158" t="n">
-        <v>2.642071942791693e-11</v>
+        <v>1.759643053848189e-11</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9977410789245184</v>
+        <v>0.005930884765101747</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3371,16 +3359,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.1299</v>
+        <v>5.148</v>
       </c>
       <c r="B159" t="n">
-        <v>7.869409634575607e-11</v>
+        <v>2.791234350292951e-10</v>
       </c>
       <c r="C159" t="n">
-        <v>3.024643885859244e-11</v>
+        <v>1.684433712579468e-11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9989415870653172</v>
+        <v>1.382547164236153e-07</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3390,16 +3378,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.1338</v>
+        <v>5.15</v>
       </c>
       <c r="B160" t="n">
-        <v>5.99590602641527e-11</v>
+        <v>3.621577262722843e-10</v>
       </c>
       <c r="C160" t="n">
-        <v>2.258124497173576e-11</v>
+        <v>2.142632097129719e-11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9999832769414818</v>
+        <v>0.02671420583977825</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3409,16 +3397,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.1389</v>
+        <v>5.151</v>
       </c>
       <c r="B161" t="n">
-        <v>7.072514935236623e-11</v>
+        <v>3.175364719854567e-10</v>
       </c>
       <c r="C161" t="n">
-        <v>2.702951235494871e-11</v>
+        <v>1.692364587662392e-11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9979837709835687</v>
+        <v>0.06142999572132859</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3428,16 +3416,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.1417</v>
+        <v>5.157</v>
       </c>
       <c r="B162" t="n">
-        <v>6.438001545702313e-11</v>
+        <v>3.555061474479702e-10</v>
       </c>
       <c r="C162" t="n">
-        <v>2.446559974608044e-11</v>
+        <v>1.605373821583445e-11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9995880182264422</v>
+        <v>0.8432755303130204</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3447,16 +3435,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.1447</v>
+        <v>5.1594</v>
       </c>
       <c r="B163" t="n">
-        <v>5.920610915300197e-11</v>
+        <v>3.680943879185433e-10</v>
       </c>
       <c r="C163" t="n">
-        <v>2.220317634962855e-11</v>
+        <v>1.500223732505255e-11</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9990974126138938</v>
+        <v>0.4183006331414771</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3466,16 +3454,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.148</v>
+        <v>5.17</v>
       </c>
       <c r="B164" t="n">
-        <v>6.424015924655304e-11</v>
+        <v>4.196587750894272e-10</v>
       </c>
       <c r="C164" t="n">
-        <v>2.411246337699966e-11</v>
+        <v>1.627804282636898e-11</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9966510639500775</v>
+        <v>0.2314263876643134</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3485,16 +3473,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.15</v>
+        <v>5.1898</v>
       </c>
       <c r="B165" t="n">
-        <v>6.38249651529287e-11</v>
+        <v>4.303078674748987e-10</v>
       </c>
       <c r="C165" t="n">
-        <v>2.447737628745254e-11</v>
+        <v>1.318705702329738e-11</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9999038762564405</v>
+        <v>0.1249599756110938</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3504,16 +3492,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.151</v>
+        <v>5.21</v>
       </c>
       <c r="B166" t="n">
-        <v>6.197719008754544e-11</v>
+        <v>4.08558310972291e-10</v>
       </c>
       <c r="C166" t="n">
-        <v>2.365456493538186e-11</v>
+        <v>1.343328276880555e-11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9983313390703786</v>
+        <v>0.5057264762351648</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3523,16 +3511,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.157</v>
+        <v>5.23</v>
       </c>
       <c r="B167" t="n">
-        <v>5.544260896968778e-11</v>
+        <v>3.733138947009885e-10</v>
       </c>
       <c r="C167" t="n">
-        <v>2.120414130943974e-11</v>
+        <v>1.722445897128673e-11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9992078948797618</v>
+        <v>0.211546905694448</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3542,16 +3530,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.1594</v>
+        <v>5.2395</v>
       </c>
       <c r="B168" t="n">
-        <v>5.147813369887117e-11</v>
+        <v>3.656772684370028e-10</v>
       </c>
       <c r="C168" t="n">
-        <v>1.921471770956034e-11</v>
+        <v>1.625443795738467e-11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9988921109724371</v>
+        <v>0.006349533534468876</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3561,16 +3549,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.17</v>
+        <v>5.2431</v>
       </c>
       <c r="B169" t="n">
-        <v>3.120820255795508e-11</v>
+        <v>4.004933700476144e-10</v>
       </c>
       <c r="C169" t="n">
-        <v>1.156912075055541e-11</v>
+        <v>2.334973637938338e-11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9974827924361978</v>
+        <v>0.813766160079363</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3580,16 +3568,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.1898</v>
+        <v>5.2501</v>
       </c>
       <c r="B170" t="n">
-        <v>2.666653594390296e-11</v>
+        <v>3.815959809568116e-10</v>
       </c>
       <c r="C170" t="n">
-        <v>1.043008471823591e-11</v>
+        <v>2.997958998649098e-11</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9835828422501096</v>
+        <v>0.2485351947312899</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3599,16 +3587,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.21</v>
+        <v>5.2599</v>
       </c>
       <c r="B171" t="n">
-        <v>2.617007112317263e-11</v>
+        <v>3.184910344533292e-10</v>
       </c>
       <c r="C171" t="n">
-        <v>1.001449065686275e-11</v>
+        <v>3.208103841830271e-11</v>
       </c>
       <c r="D171" t="n">
-        <v>0.992603294709806</v>
+        <v>0.2288211347893327</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3618,16 +3606,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.23</v>
+        <v>5.265</v>
       </c>
       <c r="B172" t="n">
-        <v>2.824017976905674e-11</v>
+        <v>3.72212830918589e-10</v>
       </c>
       <c r="C172" t="n">
-        <v>1.082286134291956e-11</v>
+        <v>4.195004952239514e-11</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9930708276521636</v>
+        <v>0.2629654649122329</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3637,16 +3625,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.2395</v>
+        <v>5.27</v>
       </c>
       <c r="B173" t="n">
-        <v>4.223695356526563e-11</v>
+        <v>3.142429109631112e-10</v>
       </c>
       <c r="C173" t="n">
-        <v>1.612506930790668e-11</v>
+        <v>4.411434629255658e-11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.997563771625241</v>
+        <v>0.2283422362831941</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3656,16 +3644,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2431</v>
+        <v>5.275</v>
       </c>
       <c r="B174" t="n">
-        <v>4.365356549300826e-11</v>
+        <v>2.387117533421439e-10</v>
       </c>
       <c r="C174" t="n">
-        <v>1.621671551488022e-11</v>
+        <v>2.617740949508752e-11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9992855101022402</v>
+        <v>0.08260354357426133</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3675,16 +3663,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.2501</v>
+        <v>5.2798</v>
       </c>
       <c r="B175" t="n">
-        <v>5.162384140955809e-11</v>
+        <v>3.367490526990031e-10</v>
       </c>
       <c r="C175" t="n">
-        <v>1.937132454615791e-11</v>
+        <v>5.957424428006344e-11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.993183472768003</v>
+        <v>0.2540767254868881</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3694,16 +3682,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.2599</v>
+        <v>5.285</v>
       </c>
       <c r="B176" t="n">
-        <v>8.282221009382838e-11</v>
+        <v>3.201935859662919e-10</v>
       </c>
       <c r="C176" t="n">
-        <v>3.184259714832835e-11</v>
+        <v>7.301827562448657e-11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9993054069166439</v>
+        <v>0.8454191526743703</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3713,16 +3701,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.265</v>
+        <v>5.2902</v>
       </c>
       <c r="B177" t="n">
-        <v>1.060560315324756e-10</v>
+        <v>2.862199109159006e-10</v>
       </c>
       <c r="C177" t="n">
-        <v>4.001920912233668e-11</v>
+        <v>5.858016659317814e-11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.999159708341459</v>
+        <v>0.7991247703952353</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3732,16 +3720,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.27</v>
+        <v>5.2929</v>
       </c>
       <c r="B178" t="n">
-        <v>1.166638001935173e-10</v>
+        <v>1.246038119168847e-10</v>
       </c>
       <c r="C178" t="n">
-        <v>4.421835577110128e-11</v>
+        <v>5.113718963174615e-11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9987432289739744</v>
+        <v>0.03303604304569648</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3751,16 +3739,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.275</v>
+        <v>5.2977</v>
       </c>
       <c r="B179" t="n">
-        <v>1.416281102397279e-10</v>
+        <v>1.899385840971457e-10</v>
       </c>
       <c r="C179" t="n">
-        <v>3.766598531072913e-11</v>
+        <v>4.985342442621069e-11</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9999999058627971</v>
+        <v>0.02003215061453606</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3770,16 +3758,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.2798</v>
+        <v>5.2997</v>
       </c>
       <c r="B180" t="n">
-        <v>1.98312344705625e-10</v>
+        <v>1.384029555177489e-10</v>
       </c>
       <c r="C180" t="n">
-        <v>7.510220322735191e-11</v>
+        <v>4.162085152470479e-11</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9988367415669342</v>
+        <v>0.6926078265775437</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3789,16 +3777,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.285</v>
+        <v>5.3024</v>
       </c>
       <c r="B181" t="n">
-        <v>2.257348757659936e-10</v>
+        <v>2.33320645785998e-10</v>
       </c>
       <c r="C181" t="n">
-        <v>8.490349987862349e-11</v>
+        <v>5.057869852184317e-11</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9999112800405295</v>
+        <v>0.7088884818615711</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3808,16 +3796,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.2902</v>
+        <v>5.3082</v>
       </c>
       <c r="B182" t="n">
-        <v>2.994697636144324e-10</v>
+        <v>2.499384688825496e-10</v>
       </c>
       <c r="C182" t="n">
-        <v>1.141318959472402e-10</v>
+        <v>3.893027920355328e-11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9997297890357165</v>
+        <v>0.7417982173641796</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3827,16 +3815,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.2929</v>
+        <v>5.3129</v>
       </c>
       <c r="B183" t="n">
-        <v>3.427489211793966e-10</v>
+        <v>2.225860636657236e-10</v>
       </c>
       <c r="C183" t="n">
-        <v>1.302573170504782e-10</v>
+        <v>3.731357637967493e-11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9996464202444244</v>
+        <v>0.04704145131011388</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3846,16 +3834,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.2977</v>
+        <v>5.3175</v>
       </c>
       <c r="B184" t="n">
-        <v>3.322712472498266e-10</v>
+        <v>1.799522007774045e-10</v>
       </c>
       <c r="C184" t="n">
-        <v>1.250666522797435e-10</v>
+        <v>3.414173527435112e-11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9998946570173166</v>
+        <v>0.9032550338451211</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3865,16 +3853,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.2997</v>
+        <v>5.3228</v>
       </c>
       <c r="B185" t="n">
-        <v>3.325563498478674e-10</v>
+        <v>2.594509465917019e-10</v>
       </c>
       <c r="C185" t="n">
-        <v>1.265671644110356e-10</v>
+        <v>3.011590197713074e-11</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9995938243288499</v>
+        <v>0.6973623952996238</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3884,16 +3872,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.3024</v>
+        <v>5.3277</v>
       </c>
       <c r="B186" t="n">
-        <v>3.084398998250175e-10</v>
+        <v>2.862401978193999e-10</v>
       </c>
       <c r="C186" t="n">
-        <v>1.168856339439927e-10</v>
+        <v>2.849205490544573e-11</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9998255826125011</v>
+        <v>0.1737262876589847</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3903,16 +3891,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.3082</v>
+        <v>5.3329</v>
       </c>
       <c r="B187" t="n">
-        <v>2.762580799765077e-10</v>
+        <v>2.658611180614171e-10</v>
       </c>
       <c r="C187" t="n">
-        <v>1.036287552839066e-10</v>
+        <v>1.795398440818964e-11</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9997900876074752</v>
+        <v>0.3416298082968747</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3922,16 +3910,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.3129</v>
+        <v>5.3375</v>
       </c>
       <c r="B188" t="n">
-        <v>2.632447218795041e-10</v>
+        <v>2.980386201182889e-10</v>
       </c>
       <c r="C188" t="n">
-        <v>9.94570144674584e-11</v>
+        <v>2.149131831399216e-11</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9994480500847495</v>
+        <v>0.3300894272728168</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3941,16 +3929,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.3175</v>
+        <v>5.3427</v>
       </c>
       <c r="B189" t="n">
-        <v>2.280145125625489e-10</v>
+        <v>3.038516501181135e-10</v>
       </c>
       <c r="C189" t="n">
-        <v>8.585930219895154e-11</v>
+        <v>2.011409847686411e-11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9999891267208414</v>
+        <v>0.2604164511628525</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3960,16 +3948,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.3228</v>
+        <v>5.3429</v>
       </c>
       <c r="B190" t="n">
-        <v>1.860862664011147e-10</v>
+        <v>3.120528102258924e-10</v>
       </c>
       <c r="C190" t="n">
-        <v>7.032029728611512e-11</v>
+        <v>1.821480967394458e-11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9999222120301741</v>
+        <v>0.1702202402902159</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3979,16 +3967,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.3277</v>
+        <v>5.3469</v>
       </c>
       <c r="B191" t="n">
-        <v>1.664682666881505e-10</v>
+        <v>3.194992897399273e-10</v>
       </c>
       <c r="C191" t="n">
-        <v>6.286589419916731e-11</v>
+        <v>1.719779887211935e-11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9996780050684679</v>
+        <v>0.8666838815346263</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -3998,16 +3986,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.3329</v>
+        <v>5.3483</v>
       </c>
       <c r="B192" t="n">
-        <v>1.350298552382104e-10</v>
+        <v>3.214698241440918e-10</v>
       </c>
       <c r="C192" t="n">
-        <v>3.634272687924539e-11</v>
+        <v>1.534555824795513e-11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.999999959744438</v>
+        <v>0.1748867779210226</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4017,16 +4005,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.3375</v>
+        <v>5.3486</v>
       </c>
       <c r="B193" t="n">
-        <v>1.018692901829437e-10</v>
+        <v>3.235626305086967e-10</v>
       </c>
       <c r="C193" t="n">
-        <v>3.835692378980691e-11</v>
+        <v>1.484549326977394e-11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9993051675711259</v>
+        <v>0.9966154242499565</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4036,16 +4024,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.3427</v>
+        <v>5.3521</v>
       </c>
       <c r="B194" t="n">
-        <v>7.16382955483146e-11</v>
+        <v>2.990930256134452e-10</v>
       </c>
       <c r="C194" t="n">
-        <v>2.721576281399812e-11</v>
+        <v>2.287491239359362e-11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9951711872696074</v>
+        <v>0.2283322591595253</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4055,16 +4043,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.3429</v>
+        <v>5.3536</v>
       </c>
       <c r="B195" t="n">
-        <v>7.521338216667898e-11</v>
+        <v>3.379928266770639e-10</v>
       </c>
       <c r="C195" t="n">
-        <v>2.839466619998645e-11</v>
+        <v>1.453395696001224e-11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.998735876730765</v>
+        <v>0.2953989087300715</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4074,16 +4062,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.3469</v>
+        <v>5.3579</v>
       </c>
       <c r="B196" t="n">
-        <v>6.116409161132459e-11</v>
+        <v>2.88103850510123e-10</v>
       </c>
       <c r="C196" t="n">
-        <v>2.356217716885786e-11</v>
+        <v>2.353688510388377e-11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9928038353828381</v>
+        <v>0.183660089871181</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4093,16 +4081,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.3483</v>
+        <v>5.3598</v>
       </c>
       <c r="B197" t="n">
-        <v>5.958121650723646e-11</v>
+        <v>3.161556425720684e-10</v>
       </c>
       <c r="C197" t="n">
-        <v>2.268599672085616e-11</v>
+        <v>2.308150161388546e-11</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9964949369772512</v>
+        <v>0.3275766467938472</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4112,16 +4100,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.3486</v>
+        <v>5.3619</v>
       </c>
       <c r="B198" t="n">
-        <v>5.85957164825034e-11</v>
+        <v>3.150131001700857e-10</v>
       </c>
       <c r="C198" t="n">
-        <v>2.24761224497934e-11</v>
+        <v>2.23951589581722e-11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9974428648450843</v>
+        <v>0.06977188871834782</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4131,16 +4119,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.3521</v>
+        <v>5.3639</v>
       </c>
       <c r="B199" t="n">
-        <v>7.879336648489661e-11</v>
+        <v>2.935634009374196e-10</v>
       </c>
       <c r="C199" t="n">
-        <v>2.996327343241358e-11</v>
+        <v>2.16109748859748e-11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9868885641864281</v>
+        <v>0.1756151087779036</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4150,16 +4138,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.3536</v>
+        <v>5.366</v>
       </c>
       <c r="B200" t="n">
-        <v>6.791158421240104e-11</v>
+        <v>2.647492348263629e-10</v>
       </c>
       <c r="C200" t="n">
-        <v>2.55959665436739e-11</v>
+        <v>2.14755847676715e-11</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9986619061155479</v>
+        <v>0.2205903767561468</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4169,16 +4157,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.3579</v>
+        <v>5.368</v>
       </c>
       <c r="B201" t="n">
-        <v>9.192292519813254e-11</v>
+        <v>3.022642813484477e-10</v>
       </c>
       <c r="C201" t="n">
-        <v>3.441487424487286e-11</v>
+        <v>1.717933223458785e-11</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9986344853608775</v>
+        <v>0.7021691571419235</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4188,16 +4176,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.3598</v>
+        <v>5.3697</v>
       </c>
       <c r="B202" t="n">
-        <v>8.49327057425267e-11</v>
+        <v>3.073168031140207e-10</v>
       </c>
       <c r="C202" t="n">
-        <v>3.170486083254798e-11</v>
+        <v>1.959800550286023e-11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9991289001789284</v>
+        <v>0.0004508876777047112</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4207,16 +4195,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3619</v>
+        <v>5.3748</v>
       </c>
       <c r="B203" t="n">
-        <v>8.52439012354448e-11</v>
+        <v>3.21170439780489e-10</v>
       </c>
       <c r="C203" t="n">
-        <v>3.253622667722295e-11</v>
+        <v>1.318718698557006e-11</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9982183843092087</v>
+        <v>0.200291974216231</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4226,16 +4214,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3639</v>
+        <v>5.3801</v>
       </c>
       <c r="B204" t="n">
-        <v>8.280370405159028e-11</v>
+        <v>3.345659162193385e-10</v>
       </c>
       <c r="C204" t="n">
-        <v>3.165531741484212e-11</v>
+        <v>1.188906785374364e-11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9962404000698851</v>
+        <v>0.198647875465548</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4245,16 +4233,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.366</v>
+        <v>5.3829</v>
       </c>
       <c r="B205" t="n">
-        <v>8.202394857022309e-11</v>
+        <v>3.46982493277214e-10</v>
       </c>
       <c r="C205" t="n">
-        <v>3.133756610368674e-11</v>
+        <v>1.094288597149513e-11</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9985080253383048</v>
+        <v>0.2955362952433533</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4264,16 +4252,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.368</v>
+        <v>5.3833</v>
       </c>
       <c r="B206" t="n">
-        <v>7.384272292634569e-11</v>
+        <v>3.762325778480986e-10</v>
       </c>
       <c r="C206" t="n">
-        <v>2.793196827038881e-11</v>
+        <v>1.135706145204864e-11</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9993702620686333</v>
+        <v>0.3671349249219001</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4283,16 +4271,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.3697</v>
+        <v>5.3839</v>
       </c>
       <c r="B207" t="n">
-        <v>7.796398011013788e-11</v>
+        <v>3.440163601468118e-10</v>
       </c>
       <c r="C207" t="n">
-        <v>2.92161757000997e-11</v>
+        <v>1.004320978503111e-11</v>
       </c>
       <c r="D207" t="n">
-        <v>0.999354501739749</v>
+        <v>0.8664401065950248</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4302,16 +4290,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.3748</v>
+        <v>5.386</v>
       </c>
       <c r="B208" t="n">
-        <v>4.580854311212238e-11</v>
+        <v>3.464052082735771e-10</v>
       </c>
       <c r="C208" t="n">
-        <v>1.734573695289222e-11</v>
+        <v>9.913569116030647e-12</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9994343131370105</v>
+        <v>0.9217271951075933</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4321,16 +4309,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.3801</v>
+        <v>5.3899</v>
       </c>
       <c r="B209" t="n">
-        <v>1.904257381926188e-11</v>
+        <v>3.609032073050192e-10</v>
       </c>
       <c r="C209" t="n">
-        <v>7.411720496875931e-12</v>
+        <v>9.450725622461688e-12</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9659307616605982</v>
+        <v>0.6362729114227537</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4340,16 +4328,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.3829</v>
+        <v>5.3931</v>
       </c>
       <c r="B210" t="n">
-        <v>1.399396102335313e-11</v>
+        <v>3.18369980575739e-10</v>
       </c>
       <c r="C210" t="n">
-        <v>5.598512490803784e-12</v>
+        <v>8.695551934203365e-12</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9931476315657406</v>
+        <v>4.306448070787029e-23</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4359,16 +4347,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3833</v>
+        <v>5.4034</v>
       </c>
       <c r="B211" t="n">
-        <v>2.05386814547785e-11</v>
+        <v>3.464325898478021e-10</v>
       </c>
       <c r="C211" t="n">
-        <v>7.876768561173722e-12</v>
+        <v>9.178083028955339e-12</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9923884328479106</v>
+        <v>3.788109503770234e-12</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4378,16 +4366,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.3839</v>
+        <v>5.4141</v>
       </c>
       <c r="B212" t="n">
-        <v>1.570840053517372e-11</v>
+        <v>3.617975611822572e-10</v>
       </c>
       <c r="C212" t="n">
-        <v>5.960354206504041e-12</v>
+        <v>9.682633489602617e-12</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9788487643760051</v>
+        <v>2.975304616644577e-06</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4397,16 +4385,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.386</v>
+        <v>5.4244</v>
       </c>
       <c r="B213" t="n">
-        <v>1.401541220918883e-11</v>
+        <v>3.393244163063036e-10</v>
       </c>
       <c r="C213" t="n">
-        <v>5.423859336862233e-12</v>
+        <v>9.915956412846422e-12</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9957669582869163</v>
+        <v>0.2097440573857762</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4416,16 +4404,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.3899</v>
+        <v>5.4354</v>
       </c>
       <c r="B214" t="n">
-        <v>1.290833158198579e-11</v>
+        <v>3.360106546454052e-10</v>
       </c>
       <c r="C214" t="n">
-        <v>4.946932524436936e-12</v>
+        <v>9.143435924292793e-12</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9875853031735995</v>
+        <v>0.3754569114380208</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4435,113 +4423,18 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.3931</v>
+        <v>5.4393</v>
       </c>
       <c r="B215" t="n">
-        <v>1.483928437713173e-11</v>
+        <v>3.414402919659178e-10</v>
       </c>
       <c r="C215" t="n">
-        <v>5.877485341702666e-12</v>
+        <v>9.726524970615311e-12</v>
       </c>
       <c r="D215" t="n">
-        <v>0.988915422107537</v>
+        <v>0.6658427331421166</v>
       </c>
       <c r="E215" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>5.4034</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.214526559445952e-11</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.859711350230376e-12</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.9844496787161262</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>5.4141</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.620435512856558e-11</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.319637730962877e-12</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.9828683034794441</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>5.4244</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.536848550506117e-11</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.883887620261365e-12</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.9942084302687031</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>5.4354</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.650189396146563e-11</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.316867865106481e-12</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.9954854647226878</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>5.4393</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.679826819680863e-11</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.585508300302039e-12</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.9906020885122833</v>
-      </c>
-      <c r="E220" t="inlineStr">
         <is>
           <t>4</t>
         </is>
